--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
   <si>
     <t>Schedule ID</t>
   </si>
@@ -413,6 +413,12 @@
     <t>Overhaul</t>
   </si>
   <si>
+    <t>2021-12-01 11:31:46</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:32:04</t>
+  </si>
+  <si>
     <t>[9am-10.30am]Wedding Solemnization of Mr. Goh Wei Ming Daryl &amp; Ms Sim Si Min Vanessa at South American Garden</t>
   </si>
   <si>
@@ -446,6 +452,18 @@
     <t>[9am-6pm]SMM M&amp;E - Installation of cable tray at Bayfront Shuttle area</t>
   </si>
   <si>
+    <t>2021-12-01 11:12:04</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:12:22</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:12:47</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:13:02</t>
+  </si>
+  <si>
     <t>2021-11-03</t>
   </si>
   <si>
@@ -467,18 +485,36 @@
     <t>Servicing</t>
   </si>
   <si>
+    <t>2021-12-01 11:05:33</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:11:45</t>
+  </si>
+  <si>
     <t>LED Lights</t>
   </si>
   <si>
     <t>[9am-7am]SMM M&amp;E - Retrofitting of LED lights and Installation of underwater LEDs at MSO Office, FFH, CM &amp; Koi Pond</t>
   </si>
   <si>
+    <t>2021-12-01 12:30:16</t>
+  </si>
+  <si>
+    <t>2021-12-01 12:30:30</t>
+  </si>
+  <si>
     <t>Pump</t>
   </si>
   <si>
     <t>[9am-6pm]SMM M&amp;E - Pump PM servicing</t>
   </si>
   <si>
+    <t>2021-12-01 11:36:55</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:37:24</t>
+  </si>
+  <si>
     <t>Ceeform</t>
   </si>
   <si>
@@ -488,6 +524,12 @@
     <t>Satay by the Garden</t>
   </si>
   <si>
+    <t>2021-12-01 11:13:24</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:16:29</t>
+  </si>
+  <si>
     <t>Spike Light</t>
   </si>
   <si>
@@ -518,6 +560,12 @@
     <t>Replacement</t>
   </si>
   <si>
+    <t>2021-12-01 12:30:52</t>
+  </si>
+  <si>
+    <t>2021-12-01 12:31:06</t>
+  </si>
+  <si>
     <t>Buggy</t>
   </si>
   <si>
@@ -530,6 +578,12 @@
     <t>Service Tunnel</t>
   </si>
   <si>
+    <t>2021-12-01 10:08:08</t>
+  </si>
+  <si>
+    <t>2021-12-01 10:08:22</t>
+  </si>
+  <si>
     <t>[3.30pm-8.30pm]Wedding Proposal of Mr Aaron Teo at Supertree Observatory</t>
   </si>
   <si>
@@ -593,6 +647,12 @@
     <t>[10.30am-2.30pm]Wedding Solemnization of Mr Ng Shiwei and Ms Annie Tan at Floral Fantasy</t>
   </si>
   <si>
+    <t>2021-12-01 12:32:02</t>
+  </si>
+  <si>
+    <t>2021-12-01 12:39:08</t>
+  </si>
+  <si>
     <t>Photoshoot / Media Press</t>
   </si>
   <si>
@@ -986,6 +1046,12 @@
     <t>[9am-6pm]Ken-Pal - Replacement of J.C cover for handicap toilet at Supertree</t>
   </si>
   <si>
+    <t>2021-12-01 10:59:50</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:01:33</t>
+  </si>
+  <si>
     <t>Troubleshooting</t>
   </si>
   <si>
@@ -1073,6 +1139,12 @@
     <t>Arrival Area</t>
   </si>
   <si>
+    <t>2021-12-01 11:17:16</t>
+  </si>
+  <si>
+    <t>2021-12-01 11:17:32</t>
+  </si>
+  <si>
     <t>[2.30pm-4pm]FOG engagement workshop at Ficus Room: Crafts &amp; Art Jamming - Snow Globe Making</t>
   </si>
   <si>
@@ -1241,6 +1313,12 @@
     <t>2021-12-01</t>
   </si>
   <si>
+    <t>2021-12-03 09:10:04</t>
+  </si>
+  <si>
+    <t>2021-12-03 10:19:23</t>
+  </si>
+  <si>
     <t>[9am-6pm]Pericomp Solutions - Retrieve existing UTP Cat 6 cabling and wifi access point equipments for renovations works at Children Garden, Supertree &amp; Canopy</t>
   </si>
   <si>
@@ -1253,6 +1331,12 @@
     <t>2021-12-03</t>
   </si>
   <si>
+    <t>2021-12-03 10:04:31</t>
+  </si>
+  <si>
+    <t>2021-12-03 10:04:45</t>
+  </si>
+  <si>
     <t>[8.30am-10pm]Taikisha - BMS enhancement work - BCU-CM-04 for upgrading/replacement of DDC controllers at Hub &amp; Cool Moist</t>
   </si>
   <si>
@@ -1275,6 +1359,12 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>2021-12-01 12:28:25</t>
+  </si>
+  <si>
+    <t>2021-12-01 12:28:54</t>
   </si>
 </sst>
 </file>
@@ -2443,6 +2533,15 @@
       <c r="O17" t="s">
         <v>33</v>
       </c>
+      <c r="Q17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" t="s">
+        <v>36</v>
+      </c>
       <c r="V17">
         <v>0</v>
       </c>
@@ -2464,13 +2563,13 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
@@ -2485,10 +2584,10 @@
         <v>101</v>
       </c>
       <c r="Q18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s">
         <v>36</v>
@@ -2514,13 +2613,13 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
         <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s">
         <v>30</v>
@@ -2529,16 +2628,16 @@
         <v>99</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S19" t="s">
         <v>36</v>
@@ -2558,19 +2657,19 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
@@ -2583,6 +2682,15 @@
       </c>
       <c r="O20" t="s">
         <v>33</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>145</v>
+      </c>
+      <c r="R20" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2599,19 +2707,19 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
         <v>30</v>
@@ -2624,6 +2732,15 @@
       </c>
       <c r="O21" t="s">
         <v>33</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>147</v>
+      </c>
+      <c r="R21" t="s">
+        <v>148</v>
+      </c>
+      <c r="S21" t="s">
+        <v>36</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2661,16 +2778,16 @@
         <v>55</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="R22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="S22" t="s">
         <v>36</v>
@@ -2690,19 +2807,19 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
         <v>30</v>
@@ -2715,6 +2832,15 @@
       </c>
       <c r="O23" t="s">
         <v>33</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2731,13 +2857,13 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2756,6 +2882,15 @@
       </c>
       <c r="O24" t="s">
         <v>33</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>160</v>
+      </c>
+      <c r="R24" t="s">
+        <v>161</v>
+      </c>
+      <c r="S24" t="s">
+        <v>36</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2772,19 +2907,19 @@
         <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
         <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
         <v>121</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I25" t="s">
         <v>30</v>
@@ -2797,6 +2932,15 @@
       </c>
       <c r="O25" t="s">
         <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>164</v>
+      </c>
+      <c r="R25" t="s">
+        <v>165</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2813,13 +2957,13 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
         <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -2831,13 +2975,22 @@
         <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="N26" t="s">
         <v>73</v>
       </c>
       <c r="O26" t="s">
         <v>33</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>169</v>
+      </c>
+      <c r="R26" t="s">
+        <v>170</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2854,13 +3007,13 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2881,10 +3034,10 @@
         <v>88</v>
       </c>
       <c r="Q27" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R27" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="S27" t="s">
         <v>36</v>
@@ -2910,7 +3063,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G28" t="s">
         <v>51</v>
@@ -2931,10 +3084,10 @@
         <v>107</v>
       </c>
       <c r="Q28" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="R28" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="S28" t="s">
         <v>36</v>
@@ -2954,19 +3107,19 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
         <v>30</v>
@@ -2975,10 +3128,19 @@
         <v>125</v>
       </c>
       <c r="N29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O29" t="s">
         <v>33</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>181</v>
+      </c>
+      <c r="R29" t="s">
+        <v>182</v>
+      </c>
+      <c r="S29" t="s">
+        <v>36</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2995,31 +3157,40 @@
         <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
         <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s">
         <v>117</v>
       </c>
       <c r="O30" t="s">
         <v>33</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>187</v>
+      </c>
+      <c r="R30" t="s">
+        <v>188</v>
+      </c>
+      <c r="S30" t="s">
+        <v>36</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3042,13 +3213,13 @@
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
         <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
         <v>30</v>
@@ -3057,16 +3228,16 @@
         <v>99</v>
       </c>
       <c r="N31" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O31" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Q31" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="R31" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="S31" t="s">
         <v>36</v>
@@ -3086,19 +3257,19 @@
         <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D32" t="s">
         <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s">
         <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="I32" t="s">
         <v>30</v>
@@ -3110,13 +3281,13 @@
         <v>118</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q32" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="R32" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
@@ -3142,13 +3313,13 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G33" t="s">
         <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
@@ -3157,16 +3328,16 @@
         <v>99</v>
       </c>
       <c r="N33" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Q33" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="R33" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
@@ -3192,7 +3363,7 @@
         <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G34" t="s">
         <v>121</v>
@@ -3210,13 +3381,13 @@
         <v>118</v>
       </c>
       <c r="O34" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q34" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="R34" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
@@ -3242,13 +3413,13 @@
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
         <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I35" t="s">
         <v>30</v>
@@ -3257,16 +3428,16 @@
         <v>99</v>
       </c>
       <c r="N35" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O35" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Q35" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="R35" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
@@ -3292,13 +3463,13 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
         <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
         <v>30</v>
@@ -3311,6 +3482,15 @@
       </c>
       <c r="O36" t="s">
         <v>33</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>210</v>
+      </c>
+      <c r="R36" t="s">
+        <v>211</v>
+      </c>
+      <c r="S36" t="s">
+        <v>36</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3327,13 +3507,13 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G37" t="s">
         <v>51</v>
@@ -3348,16 +3528,16 @@
         <v>41</v>
       </c>
       <c r="N37" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O37" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q37" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="R37" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
@@ -3377,13 +3557,13 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -3404,10 +3584,10 @@
         <v>118</v>
       </c>
       <c r="Q38" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="R38" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="S38" t="s">
         <v>36</v>
@@ -3427,13 +3607,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -3448,16 +3628,16 @@
         <v>93</v>
       </c>
       <c r="N39" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O39" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q39" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="R39" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="S39" t="s">
         <v>36</v>
@@ -3483,31 +3663,31 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I40" t="s">
         <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N40" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s">
         <v>101</v>
       </c>
       <c r="Q40" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="R40" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="S40" t="s">
         <v>36</v>
@@ -3533,31 +3713,31 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="I41" t="s">
         <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N41" t="s">
         <v>118</v>
       </c>
       <c r="O41" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q41" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="R41" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="S41" t="s">
         <v>36</v>
@@ -3583,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
@@ -3598,16 +3778,16 @@
         <v>55</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O42" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q42" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="R42" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
@@ -3633,31 +3813,31 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="I43" t="s">
         <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N43" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O43" t="s">
         <v>101</v>
       </c>
       <c r="Q43" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="R43" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="S43" t="s">
         <v>36</v>
@@ -3683,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -3698,16 +3878,16 @@
         <v>55</v>
       </c>
       <c r="N44" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O44" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q44" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="R44" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="S44" t="s">
         <v>36</v>
@@ -3733,13 +3913,13 @@
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="G45" t="s">
         <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="I45" t="s">
         <v>30</v>
@@ -3754,10 +3934,10 @@
         <v>101</v>
       </c>
       <c r="Q45" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="R45" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="S45" t="s">
         <v>36</v>
@@ -3777,19 +3957,19 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G46" t="s">
         <v>121</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I46" t="s">
         <v>30</v>
@@ -3804,10 +3984,10 @@
         <v>73</v>
       </c>
       <c r="Q46" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="R46" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="S46" t="s">
         <v>36</v>
@@ -3827,37 +4007,37 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="G47" t="s">
         <v>121</v>
       </c>
       <c r="H47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>228</v>
+      </c>
+      <c r="N47" t="s">
         <v>149</v>
       </c>
-      <c r="I47" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" t="s">
-        <v>208</v>
-      </c>
-      <c r="N47" t="s">
-        <v>143</v>
-      </c>
       <c r="O47" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q47" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="R47" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="S47" t="s">
         <v>36</v>
@@ -3877,37 +4057,37 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G48" t="s">
         <v>121</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I48" t="s">
         <v>30</v>
       </c>
       <c r="J48" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N48" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="O48" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="Q48" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="R48" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="S48" t="s">
         <v>36</v>
@@ -3927,19 +4107,19 @@
         <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="G49" t="s">
         <v>121</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
         <v>30</v>
@@ -3954,10 +4134,10 @@
         <v>118</v>
       </c>
       <c r="Q49" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="R49" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="S49" t="s">
         <v>36</v>
@@ -3974,22 +4154,22 @@
         <v>4179</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="I50" t="s">
         <v>30</v>
@@ -3998,16 +4178,16 @@
         <v>31</v>
       </c>
       <c r="N50" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O50" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q50" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="R50" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="S50" t="s">
         <v>36</v>
@@ -4033,13 +4213,13 @@
         <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G51" t="s">
         <v>121</v>
       </c>
       <c r="H51" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="I51" t="s">
         <v>30</v>
@@ -4051,13 +4231,13 @@
         <v>101</v>
       </c>
       <c r="O51" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="Q51" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="R51" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="S51" t="s">
         <v>36</v>
@@ -4083,13 +4263,13 @@
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="G52" t="s">
         <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="I52" t="s">
         <v>30</v>
@@ -4098,16 +4278,16 @@
         <v>87</v>
       </c>
       <c r="N52" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="O52" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="Q52" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="R52" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="S52" t="s">
         <v>36</v>
@@ -4133,7 +4313,7 @@
         <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G53" t="s">
         <v>51</v>
@@ -4145,19 +4325,19 @@
         <v>30</v>
       </c>
       <c r="J53" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="N53" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O53" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="Q53" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="R53" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="S53" t="s">
         <v>36</v>
@@ -4177,13 +4357,13 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
         <v>92</v>
@@ -4198,16 +4378,16 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="O54" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="Q54" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="R54" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="S54" t="s">
         <v>36</v>
@@ -4227,16 +4407,16 @@
         <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D55" t="s">
         <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="G55" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H55" t="s">
         <v>121</v>
@@ -4251,13 +4431,13 @@
         <v>101</v>
       </c>
       <c r="O55" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="Q55" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="R55" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="S55" t="s">
         <v>36</v>
@@ -4283,13 +4463,13 @@
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H56" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="I56" t="s">
         <v>30</v>
@@ -4298,16 +4478,16 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="O56" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="Q56" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="R56" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
@@ -4333,13 +4513,13 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H57" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
         <v>30</v>
@@ -4348,16 +4528,16 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="O57" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="Q57" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="R57" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="S57" t="s">
         <v>36</v>
@@ -4383,13 +4563,13 @@
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H58" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="I58" t="s">
         <v>30</v>
@@ -4404,10 +4584,10 @@
         <v>107</v>
       </c>
       <c r="Q58" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="R58" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="S58" t="s">
         <v>36</v>
@@ -4433,13 +4613,13 @@
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="G59" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H59" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="I59" t="s">
         <v>30</v>
@@ -4448,25 +4628,25 @@
         <v>55</v>
       </c>
       <c r="K59" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="L59" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O59" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q59" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="R59" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="S59" t="s">
         <v>36</v>
@@ -4492,13 +4672,13 @@
         <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="G60" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I60" t="s">
         <v>30</v>
@@ -4507,16 +4687,16 @@
         <v>87</v>
       </c>
       <c r="N60" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="O60" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="Q60" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="R60" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="S60" t="s">
         <v>36</v>
@@ -4536,34 +4716,34 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="G61" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I61" t="s">
         <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O61" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="Q61" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="R61" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="S61" t="s">
         <v>36</v>
@@ -4589,13 +4769,13 @@
         <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H62" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I62" t="s">
         <v>30</v>
@@ -4604,16 +4784,16 @@
         <v>87</v>
       </c>
       <c r="N62" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O62" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q62" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="R62" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="S62" t="s">
         <v>36</v>
@@ -4639,13 +4819,13 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G63" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I63" t="s">
         <v>30</v>
@@ -4657,10 +4837,10 @@
         <v>107</v>
       </c>
       <c r="Q63" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="R63" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="S63" t="s">
         <v>36</v>
@@ -4680,16 +4860,16 @@
         <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G64" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="H64" t="s">
         <v>121</v>
@@ -4701,13 +4881,13 @@
         <v>101</v>
       </c>
       <c r="O64" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Q64" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="R64" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="S64" t="s">
         <v>36</v>
@@ -4724,37 +4904,37 @@
         <v>4198</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="G65" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="H65" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="I65" t="s">
         <v>30</v>
       </c>
       <c r="N65" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O65" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="Q65" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="R65" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="S65" t="s">
         <v>36</v>
@@ -4780,13 +4960,13 @@
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="G66" t="s">
         <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I66" t="s">
         <v>30</v>
@@ -4795,16 +4975,16 @@
         <v>55</v>
       </c>
       <c r="N66" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="O66" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="Q66" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="R66" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="S66" t="s">
         <v>36</v>
@@ -4824,16 +5004,16 @@
         <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D67" t="s">
         <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G67" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
         <v>121</v>
@@ -4845,13 +5025,13 @@
         <v>101</v>
       </c>
       <c r="O67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q67" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="R67" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="S67" t="s">
         <v>36</v>
@@ -4871,19 +5051,19 @@
         <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F68" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I68" t="s">
         <v>30</v>
@@ -4892,16 +5072,16 @@
         <v>99</v>
       </c>
       <c r="N68" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O68" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Q68" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="R68" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="S68" t="s">
         <v>36</v>
@@ -4927,13 +5107,13 @@
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I69" t="s">
         <v>30</v>
@@ -4942,10 +5122,19 @@
         <v>99</v>
       </c>
       <c r="N69" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O69" t="s">
         <v>33</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>343</v>
+      </c>
+      <c r="R69" t="s">
+        <v>344</v>
+      </c>
+      <c r="S69" t="s">
+        <v>36</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -4959,19 +5148,19 @@
         <v>4205</v>
       </c>
       <c r="B70" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C70" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="G70" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
         <v>111</v>
@@ -4986,13 +5175,13 @@
         <v>81</v>
       </c>
       <c r="O70" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q70" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="R70" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="S70" t="s">
         <v>36</v>
@@ -5012,13 +5201,13 @@
         <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s">
         <v>123</v>
       </c>
       <c r="F71" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G71" t="s">
         <v>121</v>
@@ -5030,19 +5219,19 @@
         <v>30</v>
       </c>
       <c r="J71" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N71" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O71" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Q71" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="R71" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="S71" t="s">
         <v>36</v>
@@ -5062,13 +5251,13 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D72" t="s">
         <v>123</v>
       </c>
       <c r="F72" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="G72" t="s">
         <v>121</v>
@@ -5089,10 +5278,10 @@
         <v>81</v>
       </c>
       <c r="Q72" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="R72" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="S72" t="s">
         <v>36</v>
@@ -5112,13 +5301,13 @@
         <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D73" t="s">
         <v>123</v>
       </c>
       <c r="F73" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G73" t="s">
         <v>121</v>
@@ -5133,16 +5322,16 @@
         <v>55</v>
       </c>
       <c r="N73" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="O73" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="Q73" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="R73" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="S73" t="s">
         <v>36</v>
@@ -5162,13 +5351,13 @@
         <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="F74" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="G74" t="s">
         <v>121</v>
@@ -5180,19 +5369,19 @@
         <v>30</v>
       </c>
       <c r="J74" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N74" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O74" t="s">
         <v>81</v>
       </c>
       <c r="Q74" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="R74" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="S74" t="s">
         <v>36</v>
@@ -5218,7 +5407,7 @@
         <v>123</v>
       </c>
       <c r="F75" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G75" t="s">
         <v>121</v>
@@ -5233,16 +5422,16 @@
         <v>125</v>
       </c>
       <c r="N75" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O75" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="Q75" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="R75" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="S75" t="s">
         <v>36</v>
@@ -5262,19 +5451,19 @@
         <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
         <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I76" t="s">
         <v>30</v>
@@ -5283,16 +5472,16 @@
         <v>125</v>
       </c>
       <c r="N76" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O76" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="Q76" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="R76" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="S76" t="s">
         <v>36</v>
@@ -5312,13 +5501,13 @@
         <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
         <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -5330,13 +5519,22 @@
         <v>30</v>
       </c>
       <c r="J77" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N77" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O77" t="s">
         <v>33</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>374</v>
+      </c>
+      <c r="R77" t="s">
+        <v>375</v>
+      </c>
+      <c r="S77" t="s">
+        <v>36</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -5359,13 +5557,13 @@
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="G78" t="s">
         <v>51</v>
       </c>
       <c r="H78" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="I78" t="s">
         <v>30</v>
@@ -5374,16 +5572,16 @@
         <v>87</v>
       </c>
       <c r="N78" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="O78" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="Q78" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="R78" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="S78" t="s">
         <v>36</v>
@@ -5409,13 +5607,13 @@
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="G79" t="s">
         <v>51</v>
       </c>
       <c r="H79" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="I79" t="s">
         <v>30</v>
@@ -5430,10 +5628,10 @@
         <v>81</v>
       </c>
       <c r="Q79" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="R79" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="S79" t="s">
         <v>36</v>
@@ -5453,19 +5651,19 @@
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D80" t="s">
         <v>77</v>
       </c>
       <c r="F80" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="G80" t="s">
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -5474,16 +5672,16 @@
         <v>41</v>
       </c>
       <c r="N80" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="O80" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="Q80" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="R80" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="S80" t="s">
         <v>36</v>
@@ -5503,19 +5701,19 @@
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="G81" t="s">
         <v>51</v>
       </c>
       <c r="H81" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="I81" t="s">
         <v>30</v>
@@ -5524,16 +5722,16 @@
         <v>55</v>
       </c>
       <c r="N81" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O81" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q81" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="R81" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="S81" t="s">
         <v>36</v>
@@ -5559,13 +5757,13 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="G82" t="s">
         <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -5574,16 +5772,16 @@
         <v>55</v>
       </c>
       <c r="N82" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="O82" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q82" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="R82" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="S82" t="s">
         <v>36</v>
@@ -5606,10 +5804,10 @@
         <v>44</v>
       </c>
       <c r="D83" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="F83" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
@@ -5621,19 +5819,19 @@
         <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N83" t="s">
         <v>81</v>
       </c>
       <c r="O83" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="Q83" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="R83" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="S83" t="s">
         <v>36</v>
@@ -5659,7 +5857,7 @@
         <v>123</v>
       </c>
       <c r="F84" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="G84" t="s">
         <v>121</v>
@@ -5674,16 +5872,16 @@
         <v>125</v>
       </c>
       <c r="N84" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O84" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q84" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="R84" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="S84" t="s">
         <v>36</v>
@@ -5709,7 +5907,7 @@
         <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="G85" t="s">
         <v>9</v>
@@ -5724,10 +5922,10 @@
         <v>93</v>
       </c>
       <c r="N85" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O85" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -5750,13 +5948,13 @@
         <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="G86" t="s">
         <v>9</v>
       </c>
       <c r="H86" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="I86" t="s">
         <v>30</v>
@@ -5765,10 +5963,10 @@
         <v>93</v>
       </c>
       <c r="N86" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O86" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -5785,19 +5983,19 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F87" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I87" t="s">
         <v>30</v>
@@ -5806,10 +6004,10 @@
         <v>99</v>
       </c>
       <c r="N87" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="O87" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -5832,7 +6030,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="G88" t="s">
         <v>9</v>
@@ -5847,10 +6045,10 @@
         <v>116</v>
       </c>
       <c r="N88" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O88" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -5873,7 +6071,7 @@
         <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -5888,10 +6086,10 @@
         <v>55</v>
       </c>
       <c r="N89" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O89" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -5914,25 +6112,25 @@
         <v>77</v>
       </c>
       <c r="F90" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="G90" t="s">
         <v>121</v>
       </c>
       <c r="H90" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I90" t="s">
         <v>30</v>
       </c>
       <c r="J90" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N90" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="O90" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -5955,13 +6153,13 @@
         <v>77</v>
       </c>
       <c r="F91" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="G91" t="s">
         <v>121</v>
       </c>
       <c r="H91" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I91" t="s">
         <v>30</v>
@@ -5970,10 +6168,10 @@
         <v>125</v>
       </c>
       <c r="N91" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O91" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -5990,19 +6188,19 @@
         <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
       </c>
       <c r="F92" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
         <v>30</v>
@@ -6011,10 +6209,10 @@
         <v>125</v>
       </c>
       <c r="N92" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="O92" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -6031,19 +6229,19 @@
         <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="G93" t="s">
         <v>121</v>
       </c>
       <c r="H93" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I93" t="s">
         <v>30</v>
@@ -6052,10 +6250,10 @@
         <v>55</v>
       </c>
       <c r="N93" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="O93" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -6078,13 +6276,13 @@
         <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="G94" t="s">
         <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="I94" t="s">
         <v>30</v>
@@ -6093,16 +6291,16 @@
         <v>87</v>
       </c>
       <c r="N94" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O94" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Q94" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="R94" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="S94" t="s">
         <v>36</v>
@@ -6119,22 +6317,22 @@
         <v>4239</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="G95" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="H95" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I95" t="s">
         <v>30</v>
@@ -6143,10 +6341,19 @@
         <v>55</v>
       </c>
       <c r="N95" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="O95" t="s">
-        <v>407</v>
+        <v>431</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>432</v>
+      </c>
+      <c r="R95" t="s">
+        <v>433</v>
+      </c>
+      <c r="S95" t="s">
+        <v>36</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -6160,34 +6367,43 @@
         <v>4240</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="G96" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="H96" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
       </c>
       <c r="J96" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="N96" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O96" t="s">
-        <v>411</v>
+        <v>437</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>438</v>
+      </c>
+      <c r="R96" t="s">
+        <v>439</v>
+      </c>
+      <c r="S96" t="s">
+        <v>36</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -6204,31 +6420,31 @@
         <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="G97" t="s">
         <v>121</v>
       </c>
       <c r="H97" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
       </c>
       <c r="J97" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N97" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="O97" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -6251,25 +6467,25 @@
         <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="G98" t="s">
         <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
       </c>
       <c r="J98" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N98" t="s">
         <v>33</v>
       </c>
       <c r="O98" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -6292,7 +6508,7 @@
         <v>123</v>
       </c>
       <c r="F99" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="G99" t="s">
         <v>121</v>
@@ -6307,7 +6523,7 @@
         <v>125</v>
       </c>
       <c r="N99" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="O99" t="s">
         <v>57</v>
@@ -6327,19 +6543,19 @@
         <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D100" t="s">
         <v>77</v>
       </c>
       <c r="F100" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="I100" t="s">
         <v>30</v>
@@ -6348,10 +6564,19 @@
         <v>99</v>
       </c>
       <c r="N100" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O100" t="s">
         <v>33</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>448</v>
+      </c>
+      <c r="R100" t="s">
+        <v>449</v>
+      </c>
+      <c r="S100" t="s">
+        <v>36</v>
       </c>
       <c r="V100">
         <v>0</v>
